--- a/skraafoto-api/adresser.xlsx
+++ b/skraafoto-api/adresser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonirvold/Documents/Projects/roof-inspector/skraafoto-api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849EF865-E45F-914F-9418-C485E6EC8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0E429-51AF-5B45-BBC7-F6C5F55B715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>Adresse</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Gl. Vordingborgvej 43</t>
   </si>
   <si>
-    <t>Færgegårdsvej 15 Z</t>
-  </si>
-  <si>
     <t>Håndværkervej 3 A</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Sværdborgvej 7</t>
   </si>
   <si>
-    <t>Østergårdsstræde 1 A/Storegade 56</t>
-  </si>
-  <si>
     <t>Parkvænget 12</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
   </si>
   <si>
     <t>Vordingborg</t>
-  </si>
-  <si>
-    <t>Langebæk/4780 Stege</t>
   </si>
   <si>
     <t>Bogø</t>
@@ -362,8 +353,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B720600F-7220-BB47-9CA1-EDE5919B721A}" name="Table1" displayName="Table1" ref="A1:C70" totalsRowShown="0">
-  <autoFilter ref="A1:C70" xr:uid="{B720600F-7220-BB47-9CA1-EDE5919B721A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B720600F-7220-BB47-9CA1-EDE5919B721A}" name="Table1" displayName="Table1" ref="A1:C62" totalsRowShown="0">
+  <autoFilter ref="A1:C62" xr:uid="{B720600F-7220-BB47-9CA1-EDE5919B721A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D9B4AE1B-2678-6140-9B50-12D85CA2E5C4}" name="Postnummer"/>
     <tableColumn id="2" xr3:uid="{F069A100-44CF-6647-910C-615BE4227B32}" name="By"/>
@@ -636,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -914,68 +905,68 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>64</v>
+      <c r="A3">
+        <v>4780</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,18 +974,18 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1002,32 +993,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1035,46 +1026,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,7 +1073,7 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1090,585 +1081,497 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1682,24 +1585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <http_x003a__x002f__x002f_srv_x002d_vo_x002d_ws7_x003a_8080_x002f_Dokumenter_x002f_Forms_x002f_AllItems_x002e_aspx_x003f_RootFolder_x003d__x0025_2fDokumenter_x0025_2fHR_x0025_2d_x0025_20og_x0025_20personale_x0025_2fPersonalepolitikker_x0026_FolderCTID_x003d__x0026_View_x003d__x0025_7b281FD287_x0025_2d8291_x0025_2d4F16_x0025_2dB0D8_x0025_2dA298E437C7BD_x0025_7d xmlns="b6fd793d-063b-417c-8ca4-5fa3d95239cc" xsi:nil="true"/>
-    <Bemrk_x002e_ xmlns="b6fd793d-063b-417c-8ca4-5fa3d95239cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F362B383629B8146A3A4BAA89AC1897C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03a8b5aa319e4554454dd6616c6e932b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6fd793d-063b-417c-8ca4-5fa3d95239cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc1730afab45e61e43e04de3ca61182" ns2:_="">
     <xsd:import namespace="b6fd793d-063b-417c-8ca4-5fa3d95239cc"/>
@@ -1769,10 +1654,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <http_x003a__x002f__x002f_srv_x002d_vo_x002d_ws7_x003a_8080_x002f_Dokumenter_x002f_Forms_x002f_AllItems_x002e_aspx_x003f_RootFolder_x003d__x0025_2fDokumenter_x0025_2fHR_x0025_2d_x0025_20og_x0025_20personale_x0025_2fPersonalepolitikker_x0026_FolderCTID_x003d__x0026_View_x003d__x0025_7b281FD287_x0025_2d8291_x0025_2d4F16_x0025_2dB0D8_x0025_2dA298E437C7BD_x0025_7d xmlns="b6fd793d-063b-417c-8ca4-5fa3d95239cc" xsi:nil="true"/>
+    <Bemrk_x002e_ xmlns="b6fd793d-063b-417c-8ca4-5fa3d95239cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553D77EC-8371-4887-83FA-3CA802F152DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1975EAF7-4A70-47CA-A00D-B64AA07B8837}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b6fd793d-063b-417c-8ca4-5fa3d95239cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1793,18 +1705,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1975EAF7-4A70-47CA-A00D-B64AA07B8837}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553D77EC-8371-4887-83FA-3CA802F152DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b6fd793d-063b-417c-8ca4-5fa3d95239cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>